--- a/Balda/My Schedule.xlsx
+++ b/Balda/My Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>S.No</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>Exercise Examples</t>
+  </si>
+  <si>
+    <t>class, objects</t>
+  </si>
+  <si>
+    <t>16/6/2016</t>
   </si>
 </sst>
 </file>
@@ -93,10 +99,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,15 +420,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -421,13 +436,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -437,6 +452,15 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>42649</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Balda/My Schedule.xlsx
+++ b/Balda/My Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>S.No</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>16/6/2016</t>
+  </si>
+  <si>
+    <t>multiple and single inheritance, interface ,abstract</t>
+  </si>
+  <si>
+    <t>methods, properties, variables</t>
+  </si>
+  <si>
+    <t>29/6/2016</t>
+  </si>
+  <si>
+    <t>22/6/2016</t>
+  </si>
+  <si>
+    <t>23/6/2016</t>
   </si>
 </sst>
 </file>
@@ -417,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,6 +478,34 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
